--- a/Data Analysis/Change.xlsx
+++ b/Data Analysis/Change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\GitHub\AAU-P1-Boarding-An-Airplane\Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE3F686-8066-434D-A6AA-8F616310C855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560285D3-6146-4E78-AB7C-C7996A0677FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74520305-C062-47E2-B4C9-3741E11945E0}"/>
   </bookViews>
@@ -231,10 +231,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.439516129032258</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2983870967741935</c:v>
+                  <c:v>3.568888888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,10 +297,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4842767295597485</c:v>
+                  <c:v>2.9333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3836477987421385</c:v>
+                  <c:v>3.9725490196078432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,10 +363,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7660818713450293</c:v>
+                  <c:v>2.0638297872340425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0175438596491229</c:v>
+                  <c:v>2.2411347517730498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,11 +1485,11 @@
       </c>
       <c r="C2" s="1">
         <f>C6/$B6</f>
-        <v>2.439516129032258</v>
+        <v>2.6</v>
       </c>
       <c r="D2" s="1">
         <f>D6/$B6</f>
-        <v>3.2983870967741935</v>
+        <v>3.568888888888889</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="C3" s="1">
         <f>C7/$B7</f>
-        <v>2.4842767295597485</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="D3" s="1">
         <f>D7/$B7</f>
-        <v>3.3836477987421385</v>
+        <v>3.9725490196078432</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="C4" s="1">
         <f>C8/$B8</f>
-        <v>1.7660818713450293</v>
+        <v>2.0638297872340425</v>
       </c>
       <c r="D4" s="1">
         <f>D8/$B8</f>
-        <v>2.0175438596491229</v>
+        <v>2.2411347517730498</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C6">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="D6">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,13 +1543,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="C7">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="D7">
-        <v>1076</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,13 +1557,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C8">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D8">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
